--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H2">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I2">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J2">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>109.3740849793338</v>
+        <v>278.3675757458957</v>
       </c>
       <c r="R2">
-        <v>984.3667648140042</v>
+        <v>2505.308181713062</v>
       </c>
       <c r="S2">
-        <v>0.01645337605465679</v>
+        <v>0.03737739441207001</v>
       </c>
       <c r="T2">
-        <v>0.0164533760546568</v>
+        <v>0.03737739441207001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H3">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I3">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J3">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>319.3405117434437</v>
+        <v>730.8584433149928</v>
       </c>
       <c r="R3">
-        <v>2874.064605690993</v>
+        <v>6577.725989834935</v>
       </c>
       <c r="S3">
-        <v>0.04803907187149688</v>
+        <v>0.09813493623306364</v>
       </c>
       <c r="T3">
-        <v>0.04803907187149688</v>
+        <v>0.09813493623306364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H4">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I4">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J4">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>28.86220336102279</v>
+        <v>52.45788582676846</v>
       </c>
       <c r="R4">
-        <v>259.759830249205</v>
+        <v>472.1209724409161</v>
       </c>
       <c r="S4">
-        <v>0.004341802592036456</v>
+        <v>0.007043705012398057</v>
       </c>
       <c r="T4">
-        <v>0.004341802592036458</v>
+        <v>0.007043705012398056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H5">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I5">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J5">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>8.823468459726556</v>
+        <v>19.74691750962311</v>
       </c>
       <c r="R5">
-        <v>79.411216137539</v>
+        <v>177.722257586608</v>
       </c>
       <c r="S5">
-        <v>0.001327333112790981</v>
+        <v>0.002651488134715621</v>
       </c>
       <c r="T5">
-        <v>0.001327333112790981</v>
+        <v>0.002651488134715621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1619.290924</v>
       </c>
       <c r="I6">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J6">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>1339.417718489826</v>
+        <v>1489.501697780766</v>
       </c>
       <c r="R6">
-        <v>12054.75946640843</v>
+        <v>13405.51528002689</v>
       </c>
       <c r="S6">
-        <v>0.2014914540381993</v>
+        <v>0.2000006368781276</v>
       </c>
       <c r="T6">
-        <v>0.2014914540381993</v>
+        <v>0.2000006368781276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1619.290924</v>
       </c>
       <c r="I7">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J7">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>3910.710107806583</v>
@@ -883,10 +883,10 @@
         <v>35196.39097025924</v>
       </c>
       <c r="S7">
-        <v>0.5882964328949309</v>
+        <v>0.5251048141619296</v>
       </c>
       <c r="T7">
-        <v>0.5882964328949309</v>
+        <v>0.5251048141619297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1619.290924</v>
       </c>
       <c r="I8">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J8">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>353.4525256482378</v>
+        <v>280.6940060874285</v>
       </c>
       <c r="R8">
-        <v>3181.07273083414</v>
+        <v>2526.246054786856</v>
       </c>
       <c r="S8">
-        <v>0.0531706146209819</v>
+        <v>0.03768977240442301</v>
       </c>
       <c r="T8">
-        <v>0.0531706146209819</v>
+        <v>0.03768977240442301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>1619.290924</v>
       </c>
       <c r="I9">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J9">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>108.0540239100235</v>
+        <v>105.6626910577031</v>
       </c>
       <c r="R9">
-        <v>972.4862151902119</v>
+        <v>950.964219519328</v>
       </c>
       <c r="S9">
-        <v>0.01625479646249309</v>
+        <v>0.01418770152278664</v>
       </c>
       <c r="T9">
-        <v>0.0162547964624931</v>
+        <v>0.01418770152278665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H10">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I10">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J10">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>109.7178035113618</v>
+        <v>148.4582061250237</v>
       </c>
       <c r="R10">
-        <v>987.4602316022562</v>
+        <v>1336.123855125213</v>
       </c>
       <c r="S10">
-        <v>0.01650508236392996</v>
+        <v>0.01993400599611756</v>
       </c>
       <c r="T10">
-        <v>0.01650508236392997</v>
+        <v>0.01993400599611756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H11">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I11">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J11">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>320.3440698708947</v>
+        <v>389.779352480749</v>
       </c>
       <c r="R11">
-        <v>2883.096628838052</v>
+        <v>3508.014172326741</v>
       </c>
       <c r="S11">
-        <v>0.0481900392534574</v>
+        <v>0.05233704590887151</v>
       </c>
       <c r="T11">
-        <v>0.04819003925345741</v>
+        <v>0.05233704590887151</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H12">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I12">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J12">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>28.95290559795778</v>
+        <v>27.97669091339267</v>
       </c>
       <c r="R12">
-        <v>260.57615038162</v>
+        <v>251.790218220534</v>
       </c>
       <c r="S12">
-        <v>0.004355447122306785</v>
+        <v>0.003756528783255285</v>
       </c>
       <c r="T12">
-        <v>0.004355447122306787</v>
+        <v>0.003756528783255284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H13">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I13">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J13">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>8.851197053999556</v>
+        <v>10.53137004955467</v>
       </c>
       <c r="R13">
-        <v>79.660773485996</v>
+        <v>94.782330445992</v>
       </c>
       <c r="S13">
-        <v>0.001331504384158662</v>
+        <v>0.001414084133135502</v>
       </c>
       <c r="T13">
-        <v>0.001331504384158663</v>
+        <v>0.001414084133135502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H14">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J14">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>0.3788804087182223</v>
+        <v>0.7052503063332221</v>
       </c>
       <c r="R14">
-        <v>3.409923678464</v>
+        <v>6.347252756998999</v>
       </c>
       <c r="S14">
-        <v>5.699578511272449E-05</v>
+        <v>9.469644152490231E-05</v>
       </c>
       <c r="T14">
-        <v>5.699578511272451E-05</v>
+        <v>9.469644152490234E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H15">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J15">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>1.106220578965333</v>
+        <v>1.851645758860333</v>
       </c>
       <c r="R15">
-        <v>9.955985210688</v>
+        <v>16.664811829743</v>
       </c>
       <c r="S15">
-        <v>0.0001664111127289054</v>
+        <v>0.0002486269949181743</v>
       </c>
       <c r="T15">
-        <v>0.0001664111127289054</v>
+        <v>0.0002486269949181744</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H16">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J16">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>0.09998093614222224</v>
+        <v>0.1329031944535556</v>
       </c>
       <c r="R16">
-        <v>0.8998284252800002</v>
+        <v>1.196128750082</v>
       </c>
       <c r="S16">
-        <v>1.504034471196204E-05</v>
+        <v>1.784537981625118E-05</v>
       </c>
       <c r="T16">
-        <v>1.504034471196204E-05</v>
+        <v>1.784537981625119E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H17">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J17">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.03056518678044444</v>
+        <v>0.05002924491288888</v>
       </c>
       <c r="R17">
-        <v>0.275086681024</v>
+        <v>0.450263204216</v>
       </c>
       <c r="S17">
-        <v>4.597986007146939E-06</v>
+        <v>6.717602846655051E-06</v>
       </c>
       <c r="T17">
-        <v>4.59798600714694E-06</v>
+        <v>6.717602846655052E-06</v>
       </c>
     </row>
   </sheetData>
